--- a/data_year/zb/国民经济核算/投入产出直接消耗系数/非金属矿物制品业投入产出直接消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出直接消耗系数/非金属矿物制品业投入产出直接消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,385 +558,306 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.725292552956349</v>
+        <v>0.780516875276006</v>
       </c>
       <c r="D2" t="n">
-        <v>0.048074726090077</v>
+        <v>0.047407299316998</v>
       </c>
       <c r="E2" t="n">
-        <v>0.010950279692427</v>
+        <v>0.010640879497846</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000380901262727</v>
+        <v>0.000470158039309</v>
       </c>
       <c r="G2" t="n">
-        <v>0.096277737796497</v>
+        <v>0.077588160273759</v>
       </c>
       <c r="H2" t="n">
-        <v>0.076149834427991</v>
+        <v>0.075757260174372</v>
       </c>
       <c r="I2" t="n">
-        <v>0.035921971692366</v>
+        <v>0.030141354670558</v>
       </c>
       <c r="J2" t="n">
-        <v>0.274707447043651</v>
+        <v>0.219483124723994</v>
       </c>
       <c r="K2" t="n">
-        <v>0.000294780032006</v>
+        <v>0.000335179353726</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006899010881581</v>
+        <v>0.008512798273609</v>
       </c>
       <c r="M2" t="n">
-        <v>0.027441433788599</v>
+        <v>0.030694066863518</v>
       </c>
       <c r="N2" t="n">
-        <v>0.041600793995761</v>
+        <v>0.041382900516652</v>
       </c>
       <c r="O2" t="n">
-        <v>0.031519141674724</v>
+        <v>0.041987620329874</v>
       </c>
       <c r="P2" t="n">
-        <v>0.059284798717948</v>
+        <v>0.042248995814033</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.064397058358088</v>
+        <v>0.062244932695816</v>
       </c>
       <c r="R2" t="n">
-        <v>0.004741930718153</v>
+        <v>0.004782689944502</v>
       </c>
       <c r="S2" t="n">
-        <v>0.083222938836839</v>
+        <v>0.069504613965644</v>
       </c>
       <c r="T2" t="n">
-        <v>0.041462269062658</v>
+        <v>0.047326553265885</v>
       </c>
       <c r="U2" t="n">
-        <v>0.126775499699104</v>
+        <v>0.132971429892378</v>
       </c>
       <c r="V2" t="n">
-        <v>0.052300152801696</v>
+        <v>0.05552416798353</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02300294335644</v>
+        <v>0.025916059543011</v>
       </c>
       <c r="X2" t="n">
-        <v>0.165930104447403</v>
+        <v>0.191037636729969</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.003371692666916</v>
+        <v>0.00352524285501</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.780516875276006</v>
+        <v>0.747370278409622</v>
       </c>
       <c r="D3" t="n">
-        <v>0.047407299316998</v>
+        <v>0.025696950639742</v>
       </c>
       <c r="E3" t="n">
-        <v>0.010640879497846</v>
+        <v>0.010972706014155</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000470158039309</v>
+        <v>0.000375629920713</v>
       </c>
       <c r="G3" t="n">
-        <v>0.077588160273759</v>
+        <v>0.100377529778018</v>
       </c>
       <c r="H3" t="n">
-        <v>0.075757260174372</v>
+        <v>0.078399983777572</v>
       </c>
       <c r="I3" t="n">
-        <v>0.030141354670558</v>
+        <v>0.041369592590204</v>
       </c>
       <c r="J3" t="n">
-        <v>0.219483124723994</v>
+        <v>0.252629721590378</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000335179353726</v>
+        <v>0.001932168171635</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008512798273609</v>
+        <v>0.011691747639208</v>
       </c>
       <c r="M3" t="n">
-        <v>0.030694066863518</v>
+        <v>0.0272809213776</v>
       </c>
       <c r="N3" t="n">
-        <v>0.041382900516652</v>
+        <v>0.037222633216126</v>
       </c>
       <c r="O3" t="n">
-        <v>0.041987620329874</v>
+        <v>0.0381273416815</v>
       </c>
       <c r="P3" t="n">
-        <v>0.042248995814033</v>
+        <v>0.053770227972328</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.062244932695816</v>
+        <v>0.057827435842499</v>
       </c>
       <c r="R3" t="n">
-        <v>0.004782689944502</v>
+        <v>0.00852713879745</v>
       </c>
       <c r="S3" t="n">
-        <v>0.069504613965644</v>
+        <v>0.057112371249828</v>
       </c>
       <c r="T3" t="n">
-        <v>0.047326553265885</v>
+        <v>0.042212500982053</v>
       </c>
       <c r="U3" t="n">
-        <v>0.132971429892378</v>
+        <v>0.128678673412792</v>
       </c>
       <c r="V3" t="n">
-        <v>0.05552416798353</v>
+        <v>0.050834550238147</v>
       </c>
       <c r="W3" t="n">
-        <v>0.025916059543011</v>
+        <v>0.024608921400217</v>
       </c>
       <c r="X3" t="n">
-        <v>0.191037636729969</v>
+        <v>0.19842977043463</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.00352524285501</v>
+        <v>0.004551204863583</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.747370278409622</v>
+        <v>0.796748797770004</v>
       </c>
       <c r="D4" t="n">
-        <v>0.025696950639742</v>
+        <v>0.027956974434805</v>
       </c>
       <c r="E4" t="n">
-        <v>0.010972706014155</v>
+        <v>0.016972871247238</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000375629920713</v>
+        <v>0.000544732934058</v>
       </c>
       <c r="G4" t="n">
-        <v>0.100377529778018</v>
+        <v>0.073684480903801</v>
       </c>
       <c r="H4" t="n">
-        <v>0.078399983777572</v>
+        <v>0.09274325869549099</v>
       </c>
       <c r="I4" t="n">
-        <v>0.041369592590204</v>
+        <v>0.030553054945444</v>
       </c>
       <c r="J4" t="n">
-        <v>0.252629721590378</v>
+        <v>0.203251202229996</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001932168171635</v>
+        <v>0.002513429386707</v>
       </c>
       <c r="L4" t="n">
-        <v>0.011691747639208</v>
+        <v>0.020252104572078</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0272809213776</v>
+        <v>0.040967288108349</v>
       </c>
       <c r="N4" t="n">
-        <v>0.037222633216126</v>
+        <v>0.048299339847424</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0381273416815</v>
+        <v>0.026488927627284</v>
       </c>
       <c r="P4" t="n">
-        <v>0.053770227972328</v>
+        <v>0.034986445328755</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.057827435842499</v>
+        <v>0.045379498619104</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00852713879745</v>
+        <v>0.012901388110876</v>
       </c>
       <c r="S4" t="n">
-        <v>0.057112371249828</v>
+        <v>0.064027221051997</v>
       </c>
       <c r="T4" t="n">
-        <v>0.042212500982053</v>
+        <v>0.053860675519741</v>
       </c>
       <c r="U4" t="n">
-        <v>0.128678673412792</v>
+        <v>0.108516833780928</v>
       </c>
       <c r="V4" t="n">
-        <v>0.050834550238147</v>
+        <v>0.055552547985756</v>
       </c>
       <c r="W4" t="n">
-        <v>0.024608921400217</v>
+        <v>0.030970741738432</v>
       </c>
       <c r="X4" t="n">
-        <v>0.19842977043463</v>
+        <v>0.205258436366781</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.004551204863583</v>
+        <v>0.007569748794952</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.796748797770004</v>
+        <v>0.713430494022163</v>
       </c>
       <c r="D5" t="n">
-        <v>0.027956974434805</v>
+        <v>0.004749560717726</v>
       </c>
       <c r="E5" t="n">
-        <v>0.016972871247238</v>
+        <v>0.029464286219722</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000544732934058</v>
+        <v>0.000319210730179</v>
       </c>
       <c r="G5" t="n">
-        <v>0.073684480903801</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.09274325869549099</v>
-      </c>
+        <v>0.106494477207516</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.030553054945444</v>
+        <v>0.039495448064031</v>
       </c>
       <c r="J5" t="n">
-        <v>0.203251202229996</v>
+        <v>0.286569505977838</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002513429386707</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.020252104572078</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.040967288108349</v>
-      </c>
+        <v>0.000232408976044</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.048299339847424</v>
+        <v>0.034339161881149</v>
       </c>
       <c r="O5" t="n">
-        <v>0.026488927627284</v>
+        <v>0.094544092030524</v>
       </c>
       <c r="P5" t="n">
-        <v>0.034986445328755</v>
+        <v>0.03537094834983</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.045379498619104</v>
+        <v>0.051021745639808</v>
       </c>
       <c r="R5" t="n">
-        <v>0.012901388110876</v>
+        <v>0.006079789707525</v>
       </c>
       <c r="S5" t="n">
-        <v>0.064027221051997</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.053860675519741</v>
-      </c>
+        <v>0.105208632356461</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>0.108516833780928</v>
+        <v>0.124575056999467</v>
       </c>
       <c r="V5" t="n">
-        <v>0.055552547985756</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.030970741738432</v>
-      </c>
+        <v>0.053276179304708</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>0.205258436366781</v>
+        <v>0.186952860433899</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.007569748794952</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.713430494022163</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.004749560717726</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.029464286219722</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.000319210730179</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.106494477207516</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.039495448064031</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.286569505977838</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.000232408976044</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>0.034339161881149</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.094544092030524</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.03537094834983</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.051021745639808</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.006079789707525</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.105208632356461</v>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>0.124575056999467</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.053276179304708</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
-        <v>0.186952860433899</v>
-      </c>
-      <c r="Y6" t="n">
         <v>0.002520085824715</v>
       </c>
     </row>
